--- a/Design_Reference/IBM_5324_Keyboard_Matrix.xlsx
+++ b/Design_Reference/IBM_5324_Keyboard_Matrix.xlsx
@@ -117,7 +117,8 @@
   </si>
   <si>
     <t>(
-9</t>
+9
+[DIR]</t>
   </si>
   <si>
     <t>_
